--- a/Jogos_do_Dia_FlashScore/2023-06-26_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2023-06-26_Jogos_do_Dia_FlashScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -514,6 +514,9 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
@@ -547,6 +550,9 @@
     <t>Dundalk</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
     <t>Cusco</t>
   </si>
   <si>
@@ -565,6 +571,9 @@
     <t>St. Patricks</t>
   </si>
   <si>
+    <t>Derry City</t>
+  </si>
+  <si>
     <t>Cajamarca</t>
   </si>
   <si>
@@ -625,6 +634,9 @@
     <t>1.88</t>
   </si>
   <si>
+    <t>2.08</t>
+  </si>
+  <si>
     <t>1.83</t>
   </si>
   <si>
@@ -637,6 +649,9 @@
     <t>1.93</t>
   </si>
   <si>
+    <t>1.73</t>
+  </si>
+  <si>
     <t>1.98</t>
   </si>
   <si>
@@ -655,6 +670,9 @@
     <t>5.35</t>
   </si>
   <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>5.70</t>
   </si>
   <si>
@@ -670,6 +688,9 @@
     <t>1.06</t>
   </si>
   <si>
+    <t>1.11</t>
+  </si>
+  <si>
     <t>1.12</t>
   </si>
   <si>
@@ -700,39 +721,51 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>8.50</t>
   </si>
   <si>
     <t>8.70</t>
   </si>
   <si>
+    <t>7.20</t>
+  </si>
+  <si>
     <t>6.80</t>
   </si>
   <si>
     <t>5.20</t>
   </si>
   <si>
-    <t>7.20</t>
-  </si>
-  <si>
     <t>6.60</t>
   </si>
   <si>
     <t>1.22</t>
   </si>
   <si>
+    <t>1.30</t>
+  </si>
+  <si>
     <t>1.29</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
+    <t>3.40</t>
+  </si>
+  <si>
     <t>3.50</t>
   </si>
   <si>
     <t>1.38</t>
   </si>
   <si>
+    <t>1.80</t>
+  </si>
+  <si>
     <t>1.43</t>
   </si>
   <si>
@@ -742,6 +775,9 @@
     <t>2.90</t>
   </si>
   <si>
+    <t>2.05</t>
+  </si>
+  <si>
     <t>2.70</t>
   </si>
   <si>
@@ -754,6 +790,9 @@
     <t>1.85</t>
   </si>
   <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>1.90</t>
   </si>
   <si>
@@ -790,6 +829,9 @@
     <t>1.57</t>
   </si>
   <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t>1.48</t>
   </si>
   <si>
@@ -805,6 +847,9 @@
     <t>7.90</t>
   </si>
   <si>
+    <t>5.60</t>
+  </si>
+  <si>
     <t>4.70</t>
   </si>
   <si>
@@ -823,19 +868,16 @@
     <t>9.00</t>
   </si>
   <si>
-    <t>1.11</t>
-  </si>
-  <si>
     <t>10.20</t>
   </si>
   <si>
     <t>14.50</t>
   </si>
   <si>
+    <t>1.02</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>1.02</t>
   </si>
   <si>
     <t>23.00</t>
@@ -1211,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FG7"/>
+  <dimension ref="A1:FG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,16 +1758,16 @@
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1752,10 +1794,10 @@
         <v>2.25</v>
       </c>
       <c r="O2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.68</v>
@@ -1764,10 +1806,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="U2">
         <v>3.75</v>
@@ -1788,10 +1830,10 @@
         <v>1.03</v>
       </c>
       <c r="AA2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AB2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AC2">
         <v>13</v>
@@ -1800,10 +1842,10 @@
         <v>1.04</v>
       </c>
       <c r="AE2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AF2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -1860,10 +1902,10 @@
         <v>6.5</v>
       </c>
       <c r="AY2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AZ2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="BA2">
         <v>1.19</v>
@@ -1872,10 +1914,10 @@
         <v>4.1</v>
       </c>
       <c r="BC2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="BD2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="BE2">
         <v>1.53</v>
@@ -1884,10 +1926,10 @@
         <v>2.38</v>
       </c>
       <c r="BG2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BH2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BI2">
         <v>2.03</v>
@@ -1896,10 +1938,10 @@
         <v>1.83</v>
       </c>
       <c r="BK2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BL2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="BM2">
         <v>2.7</v>
@@ -1908,10 +1950,10 @@
         <v>1.44</v>
       </c>
       <c r="BO2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="BP2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BQ2">
         <v>4.2</v>
@@ -1920,10 +1962,10 @@
         <v>1.19</v>
       </c>
       <c r="BS2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="BT2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="BU2">
         <v>5.5</v>
@@ -1932,10 +1974,10 @@
         <v>1.14</v>
       </c>
       <c r="BW2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="BX2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="BY2">
         <v>8.699999999999999</v>
@@ -1944,10 +1986,10 @@
         <v>1.03</v>
       </c>
       <c r="CA2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="CB2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="CC2">
         <v>13</v>
@@ -1956,10 +1998,10 @@
         <v>1.04</v>
       </c>
       <c r="CE2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="CF2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="CK2">
         <v>26</v>
@@ -1968,7 +2010,7 @@
         <v>1.01</v>
       </c>
       <c r="CM2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="CN2">
         <v>1.01</v>
@@ -2123,16 +2165,16 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G3">
         <v>3.25</v>
@@ -2159,10 +2201,10 @@
         <v>2.75</v>
       </c>
       <c r="O3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>1.85</v>
@@ -2171,10 +2213,10 @@
         <v>1.95</v>
       </c>
       <c r="S3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="U3">
         <v>2.75</v>
@@ -2183,10 +2225,10 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="X3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Y3">
         <v>5.5</v>
@@ -2195,7 +2237,7 @@
         <v>1.13</v>
       </c>
       <c r="AA3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AB3">
         <v>1.13</v>
@@ -2207,10 +2249,10 @@
         <v>1.08</v>
       </c>
       <c r="AE3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AF3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AG3">
         <v>2.63</v>
@@ -2267,10 +2309,10 @@
         <v>11</v>
       </c>
       <c r="AY3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AZ3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="BA3">
         <v>1.03</v>
@@ -2279,10 +2321,10 @@
         <v>8.4</v>
       </c>
       <c r="BC3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="BD3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="BE3">
         <v>1.25</v>
@@ -2291,10 +2333,10 @@
         <v>3.75</v>
       </c>
       <c r="BG3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="BH3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="BI3">
         <v>1.4</v>
@@ -2303,10 +2345,10 @@
         <v>2.76</v>
       </c>
       <c r="BK3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="BL3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="BM3">
         <v>1.9</v>
@@ -2315,7 +2357,7 @@
         <v>1.95</v>
       </c>
       <c r="BO3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="BP3">
         <v>1.95</v>
@@ -2327,10 +2369,10 @@
         <v>1.5</v>
       </c>
       <c r="BS3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="BT3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="BU3">
         <v>3.25</v>
@@ -2339,10 +2381,10 @@
         <v>1.33</v>
       </c>
       <c r="BW3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BX3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BY3">
         <v>4.9</v>
@@ -2351,10 +2393,10 @@
         <v>1.13</v>
       </c>
       <c r="CA3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="CB3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="CC3">
         <v>6.5</v>
@@ -2363,10 +2405,10 @@
         <v>1.11</v>
       </c>
       <c r="CE3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="CF3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="CG3">
         <v>9.9</v>
@@ -2375,10 +2417,10 @@
         <v>1.01</v>
       </c>
       <c r="CI3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="CJ3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="CK3">
         <v>13</v>
@@ -2387,10 +2429,10 @@
         <v>1.04</v>
       </c>
       <c r="CM3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="CN3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="CS3">
         <v>26</v>
@@ -2399,7 +2441,7 @@
         <v>1.01</v>
       </c>
       <c r="CU3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="CV3">
         <v>1.01</v>
@@ -2557,424 +2599,424 @@
         <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G4">
+        <v>2.75</v>
+      </c>
+      <c r="H4">
+        <v>2.05</v>
+      </c>
+      <c r="I4">
+        <v>4.33</v>
+      </c>
+      <c r="J4">
+        <v>2.4</v>
+      </c>
+      <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>4.75</v>
+      </c>
+      <c r="M4">
+        <v>1.44</v>
+      </c>
+      <c r="N4">
+        <v>2.63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4">
+        <v>3.25</v>
+      </c>
+      <c r="V4">
+        <v>1.33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>201</v>
+      </c>
+      <c r="X4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4">
+        <v>6.55</v>
+      </c>
+      <c r="Z4">
+        <v>1.09</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>1.06</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>2.38</v>
-      </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
-      <c r="J4">
-        <v>2.25</v>
-      </c>
-      <c r="K4">
-        <v>2.25</v>
-      </c>
-      <c r="L4">
-        <v>5.5</v>
-      </c>
-      <c r="M4">
-        <v>1.36</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>1.36</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>1.78</v>
-      </c>
-      <c r="R4">
-        <v>2.03</v>
-      </c>
-      <c r="S4" t="s">
-        <v>203</v>
-      </c>
-      <c r="T4" t="s">
-        <v>207</v>
-      </c>
-      <c r="U4">
-        <v>2.63</v>
-      </c>
-      <c r="V4">
-        <v>1.44</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y4">
-        <v>5.25</v>
-      </c>
-      <c r="Z4">
-        <v>1.14</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC4">
-        <v>7</v>
-      </c>
-      <c r="AD4">
-        <v>1.1</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG4">
-        <v>1.5</v>
-      </c>
       <c r="AH4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AI4">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="AJ4">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AK4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AL4">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AM4">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AN4">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AO4">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AS4">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AT4">
         <v>1.8</v>
       </c>
       <c r="AU4">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AV4">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AW4">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AX4">
-        <v>11</v>
-      </c>
-      <c r="AY4">
-        <v>1.05</v>
-      </c>
-      <c r="AZ4">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>235</v>
       </c>
       <c r="BA4">
+        <v>1.1</v>
+      </c>
+      <c r="BB4">
+        <v>6.98</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BE4">
+        <v>1.36</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BI4">
+        <v>1.75</v>
+      </c>
+      <c r="BJ4">
+        <v>2.13</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM4">
+        <v>2.2</v>
+      </c>
+      <c r="BN4">
+        <v>1.65</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BQ4">
+        <v>3.33</v>
+      </c>
+      <c r="BR4">
+        <v>1.33</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU4">
+        <v>4</v>
+      </c>
+      <c r="BV4">
+        <v>1.22</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>244</v>
+      </c>
+      <c r="BY4">
+        <v>6.15</v>
+      </c>
+      <c r="BZ4">
+        <v>1.08</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC4">
+        <v>9</v>
+      </c>
+      <c r="CD4">
+        <v>1.07</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CG4">
+        <v>13</v>
+      </c>
+      <c r="CH4">
+        <v>1.01</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>227</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>286</v>
+      </c>
+      <c r="CK4">
+        <v>19</v>
+      </c>
+      <c r="CL4">
         <v>1.02</v>
       </c>
-      <c r="BB4">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>226</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE4">
-        <v>1.25</v>
-      </c>
-      <c r="BF4">
-        <v>3.75</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>237</v>
-      </c>
-      <c r="BI4">
-        <v>1.37</v>
-      </c>
-      <c r="BJ4">
-        <v>2.89</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>242</v>
-      </c>
-      <c r="BM4">
-        <v>1.83</v>
-      </c>
-      <c r="BN4">
-        <v>2.03</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>246</v>
-      </c>
-      <c r="BQ4">
-        <v>2.32</v>
-      </c>
-      <c r="BR4">
-        <v>1.55</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>253</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU4">
+      <c r="CM4" t="s">
+        <v>289</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>291</v>
+      </c>
+      <c r="CS4">
+        <v>41</v>
+      </c>
+      <c r="CT4">
+        <v>41</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>292</v>
+      </c>
+      <c r="DI4">
+        <v>1.48</v>
+      </c>
+      <c r="DJ4">
+        <v>2.6</v>
+      </c>
+      <c r="DK4">
+        <v>1.75</v>
+      </c>
+      <c r="DL4">
+        <v>2.05</v>
+      </c>
+      <c r="DM4">
+        <v>1.38</v>
+      </c>
+      <c r="DN4">
         <v>3</v>
       </c>
-      <c r="BV4">
-        <v>1.36</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BY4">
-        <v>4.6</v>
-      </c>
-      <c r="BZ4">
-        <v>1.14</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>263</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>265</v>
-      </c>
-      <c r="CC4">
-        <v>5.5</v>
-      </c>
-      <c r="CD4">
-        <v>1.14</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>216</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>269</v>
-      </c>
-      <c r="CG4">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="CH4">
+      <c r="DO4">
+        <v>2.35</v>
+      </c>
+      <c r="DP4">
+        <v>1.58</v>
+      </c>
+      <c r="DQ4">
+        <v>1.19</v>
+      </c>
+      <c r="DR4">
+        <v>4.5</v>
+      </c>
+      <c r="DS4">
+        <v>3.45</v>
+      </c>
+      <c r="DT4">
+        <v>1.3</v>
+      </c>
+      <c r="DU4">
+        <v>1.06</v>
+      </c>
+      <c r="DV4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="DW4">
+        <v>5.25</v>
+      </c>
+      <c r="DX4">
+        <v>1.16</v>
+      </c>
+      <c r="DY4">
+        <v>1.01</v>
+      </c>
+      <c r="DZ4">
+        <v>11.7</v>
+      </c>
+      <c r="EA4">
+        <v>7</v>
+      </c>
+      <c r="EB4">
+        <v>1.1</v>
+      </c>
+      <c r="EE4">
+        <v>10.2</v>
+      </c>
+      <c r="EF4">
         <v>1.02</v>
       </c>
-      <c r="CI4" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>222</v>
-      </c>
-      <c r="CK4">
+      <c r="EI4">
+        <v>8.5</v>
+      </c>
+      <c r="EJ4">
+        <v>9</v>
+      </c>
+      <c r="EK4">
+        <v>17</v>
+      </c>
+      <c r="EL4">
+        <v>41</v>
+      </c>
+      <c r="EM4">
+        <v>6.5</v>
+      </c>
+      <c r="EN4">
+        <v>6.5</v>
+      </c>
+      <c r="EO4">
         <v>13</v>
       </c>
-      <c r="CL4">
-        <v>1.04</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>277</v>
-      </c>
-      <c r="CS4">
-        <v>26</v>
-      </c>
-      <c r="CT4">
-        <v>1.01</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>278</v>
-      </c>
-      <c r="CV4">
-        <v>1.01</v>
-      </c>
-      <c r="DA4">
-        <v>51</v>
-      </c>
-      <c r="DB4">
-        <v>50</v>
-      </c>
-      <c r="DC4">
-        <v>51</v>
-      </c>
-      <c r="DD4">
-        <v>50</v>
-      </c>
-      <c r="DI4">
-        <v>1.15</v>
-      </c>
-      <c r="DJ4">
-        <v>5.5</v>
-      </c>
-      <c r="DK4">
-        <v>1.33</v>
-      </c>
-      <c r="DL4">
-        <v>3.3</v>
-      </c>
-      <c r="DM4">
-        <v>1.13</v>
-      </c>
-      <c r="DN4">
-        <v>5.9</v>
-      </c>
-      <c r="DO4">
-        <v>1.6</v>
-      </c>
-      <c r="DP4">
-        <v>2.3</v>
-      </c>
-      <c r="DQ4">
-        <v>1.04</v>
-      </c>
-      <c r="DR4">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="DS4">
-        <v>2.05</v>
-      </c>
-      <c r="DT4">
-        <v>1.75</v>
-      </c>
-      <c r="DW4">
-        <v>2.68</v>
-      </c>
-      <c r="DX4">
-        <v>1.45</v>
-      </c>
-      <c r="EA4">
-        <v>3.9</v>
-      </c>
-      <c r="EB4">
-        <v>1.24</v>
-      </c>
-      <c r="EE4">
-        <v>5.75</v>
-      </c>
-      <c r="EF4">
-        <v>1.14</v>
-      </c>
-      <c r="EI4">
-        <v>11</v>
-      </c>
-      <c r="EJ4">
-        <v>17</v>
-      </c>
-      <c r="EK4">
+      <c r="EP4">
         <v>34</v>
       </c>
-      <c r="EL4">
-        <v>81</v>
-      </c>
-      <c r="EM4">
-        <v>7</v>
-      </c>
-      <c r="EN4">
-        <v>7.5</v>
-      </c>
-      <c r="EO4">
-        <v>21</v>
-      </c>
-      <c r="EP4">
-        <v>51</v>
-      </c>
       <c r="EQ4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="ER4">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="ES4">
         <v>17</v>
       </c>
       <c r="ET4">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="EU4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="EV4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="EW4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="EX4">
         <v>51</v>
       </c>
       <c r="EY4">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="EZ4">
+        <v>67</v>
+      </c>
+      <c r="FA4">
+        <v>81</v>
+      </c>
+      <c r="FB4">
         <v>151</v>
       </c>
-      <c r="FA4">
-        <v>151</v>
-      </c>
-      <c r="FB4">
-        <v>201</v>
-      </c>
       <c r="FC4">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="FD4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="FE4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="FF4">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="FG4">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:163">
@@ -2988,400 +3030,424 @@
         <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>2.38</v>
+      </c>
+      <c r="I5">
+        <v>6.5</v>
+      </c>
+      <c r="J5">
+        <v>2.25</v>
+      </c>
+      <c r="K5">
+        <v>2.25</v>
+      </c>
+      <c r="L5">
+        <v>5.5</v>
+      </c>
+      <c r="M5">
+        <v>1.36</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>1.36</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1.78</v>
+      </c>
+      <c r="R5">
+        <v>2.03</v>
+      </c>
+      <c r="S5" t="s">
+        <v>207</v>
+      </c>
+      <c r="T5" t="s">
+        <v>212</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5">
+        <v>5.25</v>
+      </c>
+      <c r="Z5">
+        <v>1.14</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC5">
+        <v>7</v>
+      </c>
+      <c r="AD5">
+        <v>1.1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG5">
+        <v>1.5</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>7.5</v>
+      </c>
+      <c r="AJ5">
+        <v>1.62</v>
+      </c>
+      <c r="AK5">
+        <v>3.75</v>
+      </c>
+      <c r="AL5">
+        <v>4.75</v>
+      </c>
+      <c r="AM5">
+        <v>1.1</v>
+      </c>
+      <c r="AN5">
+        <v>1.22</v>
+      </c>
+      <c r="AO5">
+        <v>2.5</v>
+      </c>
+      <c r="AP5">
+        <v>1.17</v>
+      </c>
+      <c r="AQ5">
+        <v>1.22</v>
+      </c>
+      <c r="AR5">
+        <v>2.1</v>
+      </c>
+      <c r="AS5">
         <v>1.91</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3.5</v>
-      </c>
-      <c r="K5">
-        <v>1.91</v>
-      </c>
-      <c r="L5">
-        <v>3.6</v>
-      </c>
-      <c r="M5">
-        <v>1.57</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>1.57</v>
-      </c>
-      <c r="P5">
-        <v>2.25</v>
-      </c>
-      <c r="Q5">
-        <v>2.41</v>
-      </c>
-      <c r="R5">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="s">
-        <v>201</v>
-      </c>
-      <c r="T5" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5">
+      <c r="AT5">
+        <v>1.8</v>
+      </c>
+      <c r="AU5">
+        <v>1.83</v>
+      </c>
+      <c r="AV5">
+        <v>1.83</v>
+      </c>
+      <c r="AW5">
+        <v>1.05</v>
+      </c>
+      <c r="AX5">
+        <v>11</v>
+      </c>
+      <c r="AY5">
+        <v>1.05</v>
+      </c>
+      <c r="AZ5">
+        <v>11</v>
+      </c>
+      <c r="BA5">
+        <v>1.02</v>
+      </c>
+      <c r="BB5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE5">
+        <v>1.25</v>
+      </c>
+      <c r="BF5">
         <v>3.75</v>
       </c>
-      <c r="V5">
-        <v>1.25</v>
-      </c>
-      <c r="W5">
-        <v>3.75</v>
-      </c>
-      <c r="X5">
-        <v>1.25</v>
-      </c>
-      <c r="Y5">
+      <c r="BG5" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI5">
+        <v>1.37</v>
+      </c>
+      <c r="BJ5">
+        <v>2.89</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM5">
+        <v>1.83</v>
+      </c>
+      <c r="BN5">
+        <v>2.03</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ5">
+        <v>2.32</v>
+      </c>
+      <c r="BR5">
+        <v>1.55</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>266</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BU5">
+        <v>3</v>
+      </c>
+      <c r="BV5">
+        <v>1.36</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BY5">
+        <v>4.6</v>
+      </c>
+      <c r="BZ5">
+        <v>1.14</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>278</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>280</v>
+      </c>
+      <c r="CC5">
+        <v>5.5</v>
+      </c>
+      <c r="CD5">
+        <v>1.14</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CG5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>1.02</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>276</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK5">
+        <v>13</v>
+      </c>
+      <c r="CL5">
+        <v>1.04</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>289</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>291</v>
+      </c>
+      <c r="CS5">
+        <v>26</v>
+      </c>
+      <c r="CT5">
+        <v>1.01</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="CV5">
+        <v>1.01</v>
+      </c>
+      <c r="DA5">
+        <v>51</v>
+      </c>
+      <c r="DB5">
+        <v>50</v>
+      </c>
+      <c r="DC5">
+        <v>51</v>
+      </c>
+      <c r="DD5">
+        <v>50</v>
+      </c>
+      <c r="DI5">
+        <v>1.15</v>
+      </c>
+      <c r="DJ5">
+        <v>5.5</v>
+      </c>
+      <c r="DK5">
+        <v>1.33</v>
+      </c>
+      <c r="DL5">
+        <v>3.3</v>
+      </c>
+      <c r="DM5">
+        <v>1.13</v>
+      </c>
+      <c r="DN5">
+        <v>5.9</v>
+      </c>
+      <c r="DO5">
+        <v>1.6</v>
+      </c>
+      <c r="DP5">
+        <v>2.3</v>
+      </c>
+      <c r="DQ5">
+        <v>1.04</v>
+      </c>
+      <c r="DR5">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z5">
-        <v>1.05</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC5">
+      <c r="DS5">
+        <v>2.05</v>
+      </c>
+      <c r="DT5">
+        <v>1.75</v>
+      </c>
+      <c r="DW5">
+        <v>2.68</v>
+      </c>
+      <c r="DX5">
+        <v>1.45</v>
+      </c>
+      <c r="EA5">
+        <v>3.9</v>
+      </c>
+      <c r="EB5">
+        <v>1.24</v>
+      </c>
+      <c r="EE5">
+        <v>5.75</v>
+      </c>
+      <c r="EF5">
+        <v>1.14</v>
+      </c>
+      <c r="EI5">
         <v>11</v>
       </c>
-      <c r="AD5">
-        <v>1.05</v>
-      </c>
-      <c r="AE5">
-        <v>11</v>
-      </c>
-      <c r="AF5">
-        <v>1.05</v>
-      </c>
-      <c r="AG5">
-        <v>2.5</v>
-      </c>
-      <c r="AH5">
-        <v>2.9</v>
-      </c>
-      <c r="AI5">
-        <v>3.25</v>
-      </c>
-      <c r="AJ5">
-        <v>2.6</v>
-      </c>
-      <c r="AK5">
-        <v>2.8</v>
-      </c>
-      <c r="AL5">
-        <v>2.8</v>
-      </c>
-      <c r="AM5">
-        <v>1.33</v>
-      </c>
-      <c r="AN5">
-        <v>1.4</v>
-      </c>
-      <c r="AO5">
-        <v>1.5</v>
-      </c>
-      <c r="AP5">
-        <v>1.36</v>
-      </c>
-      <c r="AQ5">
-        <v>1.36</v>
-      </c>
-      <c r="AR5">
-        <v>1.44</v>
-      </c>
-      <c r="AS5">
-        <v>2.05</v>
-      </c>
-      <c r="AT5">
-        <v>1.7</v>
-      </c>
-      <c r="AU5">
-        <v>2.05</v>
-      </c>
-      <c r="AV5">
-        <v>1.7</v>
-      </c>
-      <c r="AW5">
-        <v>1.11</v>
-      </c>
-      <c r="AX5">
-        <v>6.5</v>
-      </c>
-      <c r="AY5">
-        <v>1.11</v>
-      </c>
-      <c r="AZ5">
-        <v>6.5</v>
-      </c>
-      <c r="BA5">
-        <v>1.14</v>
-      </c>
-      <c r="BB5">
-        <v>5.1</v>
-      </c>
-      <c r="BC5">
-        <v>1.14</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BE5">
-        <v>1.5</v>
-      </c>
-      <c r="BF5">
-        <v>2.5</v>
-      </c>
-      <c r="BG5">
-        <v>1.5</v>
-      </c>
-      <c r="BH5">
-        <v>2.5</v>
-      </c>
-      <c r="BI5">
-        <v>1.98</v>
-      </c>
-      <c r="BJ5">
-        <v>1.88</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM5">
-        <v>2.6</v>
-      </c>
-      <c r="BN5">
-        <v>1.48</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ5">
-        <v>3.92</v>
-      </c>
-      <c r="BR5">
-        <v>1.19</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>259</v>
-      </c>
-      <c r="BU5">
-        <v>5</v>
-      </c>
-      <c r="BV5">
-        <v>1.17</v>
-      </c>
-      <c r="BW5">
-        <v>5</v>
-      </c>
-      <c r="BX5">
-        <v>1.17</v>
-      </c>
-      <c r="BY5">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BZ5">
-        <v>1.02</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>228</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>222</v>
-      </c>
-      <c r="CC5">
-        <v>13</v>
-      </c>
-      <c r="CD5">
-        <v>1.04</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>220</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>222</v>
-      </c>
-      <c r="CK5">
-        <v>26</v>
-      </c>
-      <c r="CL5">
-        <v>1.01</v>
-      </c>
-      <c r="CM5">
-        <v>26</v>
-      </c>
-      <c r="CN5">
-        <v>1.01</v>
-      </c>
-      <c r="CS5">
+      <c r="EJ5">
+        <v>17</v>
+      </c>
+      <c r="EK5">
+        <v>34</v>
+      </c>
+      <c r="EL5">
+        <v>81</v>
+      </c>
+      <c r="EM5">
+        <v>7</v>
+      </c>
+      <c r="EN5">
+        <v>7.5</v>
+      </c>
+      <c r="EO5">
+        <v>21</v>
+      </c>
+      <c r="EP5">
         <v>51</v>
       </c>
-      <c r="CT5">
-        <v>50</v>
-      </c>
-      <c r="CU5">
-        <v>51</v>
-      </c>
-      <c r="CV5">
-        <v>50</v>
-      </c>
-      <c r="DI5">
-        <v>1.65</v>
-      </c>
-      <c r="DJ5">
-        <v>2.2</v>
-      </c>
-      <c r="DK5">
-        <v>2.1</v>
-      </c>
-      <c r="DL5">
-        <v>1.78</v>
-      </c>
-      <c r="DM5">
-        <v>1.45</v>
-      </c>
-      <c r="DN5">
-        <v>2.68</v>
-      </c>
-      <c r="DO5">
-        <v>3</v>
-      </c>
-      <c r="DP5">
-        <v>1.38</v>
-      </c>
-      <c r="DQ5">
-        <v>1.23</v>
-      </c>
-      <c r="DR5">
-        <v>4</v>
-      </c>
-      <c r="DS5">
-        <v>4.65</v>
-      </c>
-      <c r="DT5">
-        <v>1.18</v>
-      </c>
-      <c r="DU5">
-        <v>1.1</v>
-      </c>
-      <c r="DV5">
+      <c r="EQ5">
         <v>7</v>
       </c>
-      <c r="DW5">
-        <v>7</v>
-      </c>
-      <c r="DX5">
-        <v>1.1</v>
-      </c>
-      <c r="DY5">
-        <v>1.02</v>
-      </c>
-      <c r="DZ5">
-        <v>11</v>
-      </c>
-      <c r="EI5">
-        <v>6.5</v>
-      </c>
-      <c r="EJ5">
-        <v>7.5</v>
-      </c>
-      <c r="EK5">
-        <v>15</v>
-      </c>
-      <c r="EL5">
-        <v>34</v>
-      </c>
-      <c r="EM5">
-        <v>6.5</v>
-      </c>
-      <c r="EN5">
-        <v>5.5</v>
-      </c>
-      <c r="EO5">
-        <v>12</v>
-      </c>
-      <c r="EP5">
-        <v>29</v>
-      </c>
-      <c r="EQ5">
-        <v>10</v>
-      </c>
       <c r="ER5">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="ES5">
         <v>17</v>
       </c>
       <c r="ET5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="EU5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="EV5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="EW5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="EX5">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="EY5">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="EZ5">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="FA5">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="FB5">
         <v>201</v>
       </c>
       <c r="FC5">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="FD5">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="FE5">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="FF5">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="FG5">
-        <v>501</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:163">
@@ -3389,385 +3455,361 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
+        <v>1.91</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+      <c r="K6">
+        <v>1.91</v>
+      </c>
+      <c r="L6">
+        <v>3.6</v>
+      </c>
+      <c r="M6">
+        <v>1.57</v>
+      </c>
+      <c r="N6">
         <v>2.25</v>
       </c>
-      <c r="I6">
+      <c r="O6">
+        <v>1.57</v>
+      </c>
+      <c r="P6">
+        <v>2.25</v>
+      </c>
+      <c r="Q6">
+        <v>2.41</v>
+      </c>
+      <c r="R6">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>204</v>
+      </c>
+      <c r="T6" t="s">
+        <v>209</v>
+      </c>
+      <c r="U6">
+        <v>3.75</v>
+      </c>
+      <c r="V6">
+        <v>1.25</v>
+      </c>
+      <c r="W6">
+        <v>3.75</v>
+      </c>
+      <c r="X6">
+        <v>1.25</v>
+      </c>
+      <c r="Y6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>1.05</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC6">
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <v>1.05</v>
+      </c>
+      <c r="AE6">
+        <v>11</v>
+      </c>
+      <c r="AF6">
+        <v>1.05</v>
+      </c>
+      <c r="AG6">
+        <v>2.5</v>
+      </c>
+      <c r="AH6">
+        <v>2.9</v>
+      </c>
+      <c r="AI6">
+        <v>3.25</v>
+      </c>
+      <c r="AJ6">
+        <v>2.6</v>
+      </c>
+      <c r="AK6">
+        <v>2.8</v>
+      </c>
+      <c r="AL6">
+        <v>2.8</v>
+      </c>
+      <c r="AM6">
+        <v>1.33</v>
+      </c>
+      <c r="AN6">
+        <v>1.4</v>
+      </c>
+      <c r="AO6">
+        <v>1.5</v>
+      </c>
+      <c r="AP6">
+        <v>1.36</v>
+      </c>
+      <c r="AQ6">
+        <v>1.36</v>
+      </c>
+      <c r="AR6">
+        <v>1.44</v>
+      </c>
+      <c r="AS6">
+        <v>2.05</v>
+      </c>
+      <c r="AT6">
+        <v>1.7</v>
+      </c>
+      <c r="AU6">
+        <v>2.05</v>
+      </c>
+      <c r="AV6">
+        <v>1.7</v>
+      </c>
+      <c r="AW6">
+        <v>1.11</v>
+      </c>
+      <c r="AX6">
+        <v>6.5</v>
+      </c>
+      <c r="AY6">
+        <v>1.11</v>
+      </c>
+      <c r="AZ6">
+        <v>6.5</v>
+      </c>
+      <c r="BA6">
+        <v>1.14</v>
+      </c>
+      <c r="BB6">
+        <v>5.1</v>
+      </c>
+      <c r="BC6">
+        <v>1.14</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE6">
+        <v>1.5</v>
+      </c>
+      <c r="BF6">
+        <v>2.5</v>
+      </c>
+      <c r="BG6">
+        <v>1.5</v>
+      </c>
+      <c r="BH6">
+        <v>2.5</v>
+      </c>
+      <c r="BI6">
+        <v>1.98</v>
+      </c>
+      <c r="BJ6">
+        <v>1.88</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM6">
+        <v>2.6</v>
+      </c>
+      <c r="BN6">
+        <v>1.48</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>260</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ6">
+        <v>3.92</v>
+      </c>
+      <c r="BR6">
+        <v>1.19</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>2.4</v>
-      </c>
-      <c r="K6">
+      <c r="BV6">
+        <v>1.17</v>
+      </c>
+      <c r="BW6">
+        <v>5</v>
+      </c>
+      <c r="BX6">
+        <v>1.17</v>
+      </c>
+      <c r="BY6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BZ6">
+        <v>1.02</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC6">
+        <v>13</v>
+      </c>
+      <c r="CD6">
+        <v>1.04</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK6">
+        <v>26</v>
+      </c>
+      <c r="CL6">
+        <v>1.01</v>
+      </c>
+      <c r="CM6">
+        <v>26</v>
+      </c>
+      <c r="CN6">
+        <v>1.01</v>
+      </c>
+      <c r="CS6">
+        <v>51</v>
+      </c>
+      <c r="CT6">
+        <v>50</v>
+      </c>
+      <c r="CU6">
+        <v>51</v>
+      </c>
+      <c r="CV6">
+        <v>50</v>
+      </c>
+      <c r="DI6">
+        <v>1.65</v>
+      </c>
+      <c r="DJ6">
         <v>2.2</v>
       </c>
-      <c r="L6">
-        <v>4.75</v>
-      </c>
-      <c r="M6">
-        <v>1.36</v>
-      </c>
-      <c r="N6">
+      <c r="DK6">
+        <v>2.1</v>
+      </c>
+      <c r="DL6">
+        <v>1.78</v>
+      </c>
+      <c r="DM6">
+        <v>1.45</v>
+      </c>
+      <c r="DN6">
+        <v>2.68</v>
+      </c>
+      <c r="DO6">
         <v>3</v>
       </c>
-      <c r="O6" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6">
-        <v>1.85</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>1.95</v>
-      </c>
-      <c r="U6">
-        <v>2.75</v>
-      </c>
-      <c r="V6">
-        <v>1.4</v>
-      </c>
-      <c r="W6">
-        <v>2.75</v>
-      </c>
-      <c r="X6">
-        <v>1.4</v>
-      </c>
-      <c r="Y6">
-        <v>5.55</v>
-      </c>
-      <c r="Z6">
-        <v>1.12</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB6">
-        <v>1.12</v>
-      </c>
-      <c r="AC6">
+      <c r="DP6">
+        <v>1.38</v>
+      </c>
+      <c r="DQ6">
+        <v>1.23</v>
+      </c>
+      <c r="DR6">
+        <v>4</v>
+      </c>
+      <c r="DS6">
+        <v>4.65</v>
+      </c>
+      <c r="DT6">
+        <v>1.18</v>
+      </c>
+      <c r="DU6">
+        <v>1.1</v>
+      </c>
+      <c r="DV6">
         <v>7</v>
       </c>
-      <c r="AD6">
+      <c r="DW6">
+        <v>7</v>
+      </c>
+      <c r="DX6">
         <v>1.1</v>
       </c>
-      <c r="AE6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG6">
-        <v>1.62</v>
-      </c>
-      <c r="AH6">
-        <v>3.6</v>
-      </c>
-      <c r="AI6">
-        <v>4.5</v>
-      </c>
-      <c r="AJ6">
-        <v>1.73</v>
-      </c>
-      <c r="AK6">
-        <v>3.5</v>
-      </c>
-      <c r="AL6">
-        <v>4</v>
-      </c>
-      <c r="AM6">
-        <v>1.17</v>
-      </c>
-      <c r="AN6">
-        <v>1.25</v>
-      </c>
-      <c r="AO6">
-        <v>2.1</v>
-      </c>
-      <c r="AP6">
-        <v>1.2</v>
-      </c>
-      <c r="AQ6">
-        <v>1.25</v>
-      </c>
-      <c r="AR6">
-        <v>1.91</v>
-      </c>
-      <c r="AS6">
-        <v>1.83</v>
-      </c>
-      <c r="AT6">
-        <v>1.83</v>
-      </c>
-      <c r="AU6">
-        <v>1.83</v>
-      </c>
-      <c r="AV6">
-        <v>1.83</v>
-      </c>
-      <c r="AW6">
-        <v>1.05</v>
-      </c>
-      <c r="AX6">
+      <c r="DY6">
+        <v>1.02</v>
+      </c>
+      <c r="DZ6">
         <v>11</v>
       </c>
-      <c r="AY6">
-        <v>1.05</v>
-      </c>
-      <c r="AZ6">
-        <v>11</v>
-      </c>
-      <c r="BA6">
-        <v>1.03</v>
-      </c>
-      <c r="BB6">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE6">
-        <v>1.29</v>
-      </c>
-      <c r="BF6">
-        <v>3.5</v>
-      </c>
-      <c r="BG6">
-        <v>1.29</v>
-      </c>
-      <c r="BH6">
-        <v>3.5</v>
-      </c>
-      <c r="BI6">
-        <v>1.41</v>
-      </c>
-      <c r="BJ6">
-        <v>2.69</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BM6">
-        <v>1.88</v>
-      </c>
-      <c r="BN6">
-        <v>1.93</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>246</v>
-      </c>
-      <c r="BQ6">
-        <v>2.46</v>
-      </c>
-      <c r="BR6">
-        <v>1.48</v>
-      </c>
-      <c r="BS6">
-        <v>2.46</v>
-      </c>
-      <c r="BT6">
-        <v>1.48</v>
-      </c>
-      <c r="BU6">
-        <v>3.25</v>
-      </c>
-      <c r="BV6">
-        <v>1.33</v>
-      </c>
-      <c r="BW6">
-        <v>3.25</v>
-      </c>
-      <c r="BX6">
-        <v>1.33</v>
-      </c>
-      <c r="BY6">
-        <v>5</v>
-      </c>
-      <c r="BZ6">
-        <v>1.12</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>264</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>266</v>
-      </c>
-      <c r="CC6">
+      <c r="EI6">
         <v>6.5</v>
       </c>
-      <c r="CD6">
-        <v>1.11</v>
-      </c>
-      <c r="CE6">
+      <c r="EJ6">
+        <v>7.5</v>
+      </c>
+      <c r="EK6">
+        <v>15</v>
+      </c>
+      <c r="EL6">
+        <v>34</v>
+      </c>
+      <c r="EM6">
         <v>6.5</v>
       </c>
-      <c r="CF6">
-        <v>1.11</v>
-      </c>
-      <c r="CG6">
+      <c r="EN6">
+        <v>5.5</v>
+      </c>
+      <c r="EO6">
+        <v>12</v>
+      </c>
+      <c r="EP6">
+        <v>29</v>
+      </c>
+      <c r="EQ6">
         <v>10</v>
       </c>
-      <c r="CH6">
-        <v>1.01</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>270</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK6">
-        <v>13</v>
-      </c>
-      <c r="CL6">
-        <v>1.04</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>277</v>
-      </c>
-      <c r="CS6">
-        <v>26</v>
-      </c>
-      <c r="CT6">
-        <v>1.01</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>278</v>
-      </c>
-      <c r="CV6">
-        <v>1.01</v>
-      </c>
-      <c r="DA6">
-        <v>51</v>
-      </c>
-      <c r="DB6">
-        <v>50</v>
-      </c>
-      <c r="DC6">
-        <v>51</v>
-      </c>
-      <c r="DD6">
-        <v>50</v>
-      </c>
-      <c r="DI6">
-        <v>1.28</v>
-      </c>
-      <c r="DJ6">
-        <v>3.55</v>
-      </c>
-      <c r="DK6">
-        <v>1.48</v>
-      </c>
-      <c r="DL6">
-        <v>2.6</v>
-      </c>
-      <c r="DM6">
-        <v>1.23</v>
-      </c>
-      <c r="DN6">
-        <v>4</v>
-      </c>
-      <c r="DO6">
-        <v>1.85</v>
-      </c>
-      <c r="DP6">
-        <v>1.95</v>
-      </c>
-      <c r="DQ6">
-        <v>1.13</v>
-      </c>
-      <c r="DR6">
-        <v>6</v>
-      </c>
-      <c r="DS6">
-        <v>2.5</v>
-      </c>
-      <c r="DT6">
-        <v>1.5</v>
-      </c>
-      <c r="DW6">
-        <v>3.45</v>
-      </c>
-      <c r="DX6">
-        <v>1.3</v>
-      </c>
-      <c r="EA6">
-        <v>5.5</v>
-      </c>
-      <c r="EB6">
-        <v>1.15</v>
-      </c>
-      <c r="EE6">
-        <v>7.29</v>
-      </c>
-      <c r="EF6">
-        <v>1.06</v>
-      </c>
-      <c r="EI6">
-        <v>11</v>
-      </c>
-      <c r="EJ6">
-        <v>13</v>
-      </c>
-      <c r="EK6">
-        <v>23</v>
-      </c>
-      <c r="EL6">
-        <v>51</v>
-      </c>
-      <c r="EM6">
-        <v>7</v>
-      </c>
-      <c r="EN6">
-        <v>7.5</v>
-      </c>
-      <c r="EO6">
-        <v>15</v>
-      </c>
-      <c r="EP6">
-        <v>41</v>
-      </c>
-      <c r="EQ6">
-        <v>8</v>
-      </c>
       <c r="ER6">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="ES6">
         <v>17</v>
@@ -3776,43 +3818,43 @@
         <v>41</v>
       </c>
       <c r="EU6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="EV6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="EW6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="EX6">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="EY6">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="EZ6">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="FA6">
         <v>101</v>
       </c>
       <c r="FB6">
+        <v>201</v>
+      </c>
+      <c r="FC6">
+        <v>51</v>
+      </c>
+      <c r="FD6">
+        <v>51</v>
+      </c>
+      <c r="FE6">
+        <v>81</v>
+      </c>
+      <c r="FF6">
         <v>151</v>
       </c>
-      <c r="FC6">
-        <v>26</v>
-      </c>
-      <c r="FD6">
-        <v>26</v>
-      </c>
-      <c r="FE6">
-        <v>41</v>
-      </c>
-      <c r="FF6">
-        <v>81</v>
-      </c>
       <c r="FG6">
-        <v>301</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:163">
@@ -3826,400 +3868,400 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I7">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="R7">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="s">
-        <v>204</v>
-      </c>
-      <c r="T7" t="s">
-        <v>208</v>
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>1.95</v>
       </c>
       <c r="U7">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>1.3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>209</v>
-      </c>
-      <c r="X7" t="s">
-        <v>210</v>
+        <v>1.4</v>
+      </c>
+      <c r="W7">
+        <v>2.75</v>
+      </c>
+      <c r="X7">
+        <v>1.4</v>
       </c>
       <c r="Y7">
-        <v>8.1</v>
+        <v>5.55</v>
       </c>
       <c r="Z7">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AA7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB7">
+        <v>1.12</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <v>1.1</v>
+      </c>
+      <c r="AE7" t="s">
         <v>216</v>
       </c>
-      <c r="AB7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
-      </c>
-      <c r="AD7">
-        <v>1.06</v>
-      </c>
-      <c r="AE7">
-        <v>10</v>
-      </c>
-      <c r="AF7">
-        <v>1.06</v>
+      <c r="AF7" t="s">
+        <v>231</v>
       </c>
       <c r="AG7">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AH7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AI7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AJ7">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AK7">
         <v>3.5</v>
       </c>
       <c r="AL7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AM7">
+        <v>1.17</v>
+      </c>
+      <c r="AN7">
+        <v>1.25</v>
+      </c>
+      <c r="AO7">
+        <v>2.1</v>
+      </c>
+      <c r="AP7">
+        <v>1.2</v>
+      </c>
+      <c r="AQ7">
+        <v>1.25</v>
+      </c>
+      <c r="AR7">
+        <v>1.91</v>
+      </c>
+      <c r="AS7">
+        <v>1.83</v>
+      </c>
+      <c r="AT7">
+        <v>1.83</v>
+      </c>
+      <c r="AU7">
+        <v>1.83</v>
+      </c>
+      <c r="AV7">
+        <v>1.83</v>
+      </c>
+      <c r="AW7">
+        <v>1.05</v>
+      </c>
+      <c r="AX7">
+        <v>11</v>
+      </c>
+      <c r="AY7">
+        <v>1.05</v>
+      </c>
+      <c r="AZ7">
+        <v>11</v>
+      </c>
+      <c r="BA7">
+        <v>1.03</v>
+      </c>
+      <c r="BB7">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BE7">
         <v>1.29</v>
       </c>
-      <c r="AN7">
+      <c r="BF7">
+        <v>3.5</v>
+      </c>
+      <c r="BG7">
         <v>1.29</v>
       </c>
-      <c r="AO7">
-        <v>1.73</v>
-      </c>
-      <c r="AP7">
-        <v>1.18</v>
-      </c>
-      <c r="AQ7">
-        <v>1.29</v>
-      </c>
-      <c r="AR7">
-        <v>2</v>
-      </c>
-      <c r="AS7">
-        <v>2</v>
-      </c>
-      <c r="AT7">
-        <v>1.75</v>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>1.75</v>
-      </c>
-      <c r="AW7">
-        <v>1.08</v>
-      </c>
-      <c r="AX7">
-        <v>8</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA7">
-        <v>1.09</v>
-      </c>
-      <c r="BB7">
-        <v>5.6</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE7">
-        <v>1.4</v>
-      </c>
-      <c r="BF7">
-        <v>2.75</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>198</v>
+      <c r="BH7">
+        <v>3.5</v>
       </c>
       <c r="BI7">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="BJ7">
-        <v>2.05</v>
-      </c>
-      <c r="BK7">
-        <v>1.8</v>
-      </c>
-      <c r="BL7">
-        <v>2.05</v>
+        <v>2.69</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>255</v>
       </c>
       <c r="BM7">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="BN7">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="BO7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="BP7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BQ7">
-        <v>3.62</v>
+        <v>2.46</v>
       </c>
       <c r="BR7">
-        <v>1.25</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>255</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>210</v>
+        <v>1.48</v>
+      </c>
+      <c r="BS7">
+        <v>2.46</v>
+      </c>
+      <c r="BT7">
+        <v>1.48</v>
       </c>
       <c r="BU7">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="BV7">
-        <v>1.2</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>236</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>234</v>
+        <v>1.33</v>
+      </c>
+      <c r="BW7">
+        <v>3.25</v>
+      </c>
+      <c r="BX7">
+        <v>1.33</v>
       </c>
       <c r="BY7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BZ7">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="CA7" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="CB7" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="CC7">
+        <v>6.5</v>
+      </c>
+      <c r="CD7">
+        <v>1.11</v>
+      </c>
+      <c r="CE7">
+        <v>6.5</v>
+      </c>
+      <c r="CF7">
+        <v>1.11</v>
+      </c>
+      <c r="CG7">
         <v>10</v>
-      </c>
-      <c r="CD7">
-        <v>1.06</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>226</v>
-      </c>
-      <c r="CG7">
-        <v>16</v>
       </c>
       <c r="CH7">
         <v>1.01</v>
       </c>
       <c r="CI7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="CJ7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="CK7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="CL7">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="CM7" t="s">
-        <v>276</v>
-      </c>
-      <c r="CN7">
-        <v>1.02</v>
+        <v>289</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>291</v>
       </c>
       <c r="CS7">
+        <v>26</v>
+      </c>
+      <c r="CT7">
+        <v>1.01</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>292</v>
+      </c>
+      <c r="CV7">
+        <v>1.01</v>
+      </c>
+      <c r="DA7">
         <v>51</v>
       </c>
-      <c r="CT7">
+      <c r="DB7">
         <v>50</v>
       </c>
-      <c r="CU7" t="s">
-        <v>279</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>279</v>
+      <c r="DC7">
+        <v>51</v>
+      </c>
+      <c r="DD7">
+        <v>50</v>
       </c>
       <c r="DI7">
+        <v>1.28</v>
+      </c>
+      <c r="DJ7">
+        <v>3.55</v>
+      </c>
+      <c r="DK7">
+        <v>1.48</v>
+      </c>
+      <c r="DL7">
+        <v>2.6</v>
+      </c>
+      <c r="DM7">
+        <v>1.23</v>
+      </c>
+      <c r="DN7">
+        <v>4</v>
+      </c>
+      <c r="DO7">
+        <v>1.85</v>
+      </c>
+      <c r="DP7">
+        <v>1.95</v>
+      </c>
+      <c r="DQ7">
+        <v>1.13</v>
+      </c>
+      <c r="DR7">
+        <v>6</v>
+      </c>
+      <c r="DS7">
+        <v>2.5</v>
+      </c>
+      <c r="DT7">
         <v>1.5</v>
       </c>
-      <c r="DJ7">
-        <v>2.5</v>
-      </c>
-      <c r="DK7">
-        <v>1.78</v>
-      </c>
-      <c r="DL7">
-        <v>2.03</v>
-      </c>
-      <c r="DM7">
-        <v>1.38</v>
-      </c>
-      <c r="DN7">
-        <v>3</v>
-      </c>
-      <c r="DO7">
-        <v>2.38</v>
-      </c>
-      <c r="DP7">
-        <v>1.55</v>
-      </c>
-      <c r="DQ7">
-        <v>1.2</v>
-      </c>
-      <c r="DR7">
-        <v>4.4</v>
-      </c>
-      <c r="DS7">
-        <v>3.55</v>
-      </c>
-      <c r="DT7">
-        <v>1.28</v>
-      </c>
-      <c r="DU7">
-        <v>1.04</v>
-      </c>
-      <c r="DV7">
-        <v>8.75</v>
-      </c>
       <c r="DW7">
+        <v>3.45</v>
+      </c>
+      <c r="DX7">
+        <v>1.3</v>
+      </c>
+      <c r="EA7">
         <v>5.5</v>
       </c>
-      <c r="DX7">
+      <c r="EB7">
         <v>1.15</v>
       </c>
-      <c r="DY7">
-        <v>1.01</v>
-      </c>
-      <c r="DZ7">
-        <v>11.6</v>
-      </c>
-      <c r="EA7">
+      <c r="EE7">
+        <v>7.29</v>
+      </c>
+      <c r="EF7">
+        <v>1.06</v>
+      </c>
+      <c r="EI7">
+        <v>11</v>
+      </c>
+      <c r="EJ7">
+        <v>13</v>
+      </c>
+      <c r="EK7">
+        <v>23</v>
+      </c>
+      <c r="EL7">
+        <v>51</v>
+      </c>
+      <c r="EM7">
         <v>7</v>
       </c>
-      <c r="EB7">
-        <v>1.1</v>
-      </c>
-      <c r="EE7">
-        <v>10.6</v>
-      </c>
-      <c r="EF7">
-        <v>1.02</v>
-      </c>
-      <c r="EI7">
+      <c r="EN7">
+        <v>7.5</v>
+      </c>
+      <c r="EO7">
+        <v>15</v>
+      </c>
+      <c r="EP7">
+        <v>41</v>
+      </c>
+      <c r="EQ7">
         <v>8</v>
       </c>
-      <c r="EJ7">
+      <c r="ER7">
         <v>8.5</v>
       </c>
-      <c r="EK7">
+      <c r="ES7">
         <v>17</v>
-      </c>
-      <c r="EL7">
-        <v>41</v>
-      </c>
-      <c r="EM7">
-        <v>6</v>
-      </c>
-      <c r="EN7">
-        <v>6.5</v>
-      </c>
-      <c r="EO7">
-        <v>13</v>
-      </c>
-      <c r="EP7">
-        <v>34</v>
-      </c>
-      <c r="EQ7">
-        <v>9</v>
-      </c>
-      <c r="ER7">
-        <v>9.5</v>
-      </c>
-      <c r="ES7">
-        <v>19</v>
       </c>
       <c r="ET7">
         <v>41</v>
       </c>
       <c r="EU7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="EV7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="EW7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="EX7">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="EY7">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="EZ7">
         <v>81</v>
@@ -4228,21 +4270,452 @@
         <v>101</v>
       </c>
       <c r="FB7">
+        <v>151</v>
+      </c>
+      <c r="FC7">
+        <v>26</v>
+      </c>
+      <c r="FD7">
+        <v>26</v>
+      </c>
+      <c r="FE7">
+        <v>41</v>
+      </c>
+      <c r="FF7">
+        <v>81</v>
+      </c>
+      <c r="FG7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:163">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8">
+        <v>2.88</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4.33</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>2.1</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8">
+        <v>2.26</v>
+      </c>
+      <c r="R8">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>208</v>
+      </c>
+      <c r="T8" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8">
+        <v>3.4</v>
+      </c>
+      <c r="V8">
+        <v>1.3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>214</v>
+      </c>
+      <c r="X8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y8">
+        <v>8.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.06</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>1.06</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>1.06</v>
+      </c>
+      <c r="AG8">
+        <v>2.05</v>
+      </c>
+      <c r="AH8">
+        <v>3.5</v>
+      </c>
+      <c r="AI8">
+        <v>3.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.75</v>
+      </c>
+      <c r="AK8">
+        <v>3.5</v>
+      </c>
+      <c r="AL8">
+        <v>4.5</v>
+      </c>
+      <c r="AM8">
+        <v>1.29</v>
+      </c>
+      <c r="AN8">
+        <v>1.29</v>
+      </c>
+      <c r="AO8">
+        <v>1.73</v>
+      </c>
+      <c r="AP8">
+        <v>1.18</v>
+      </c>
+      <c r="AQ8">
+        <v>1.29</v>
+      </c>
+      <c r="AR8">
+        <v>2</v>
+      </c>
+      <c r="AS8">
+        <v>2</v>
+      </c>
+      <c r="AT8">
+        <v>1.75</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>1.75</v>
+      </c>
+      <c r="AW8">
+        <v>1.08</v>
+      </c>
+      <c r="AX8">
+        <v>8</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA8">
+        <v>1.09</v>
+      </c>
+      <c r="BB8">
+        <v>5.6</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE8">
+        <v>1.4</v>
+      </c>
+      <c r="BF8">
+        <v>2.75</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH8" t="s">
         <v>201</v>
       </c>
-      <c r="FC7">
+      <c r="BI8">
+        <v>1.8</v>
+      </c>
+      <c r="BJ8">
+        <v>2.05</v>
+      </c>
+      <c r="BK8">
+        <v>1.8</v>
+      </c>
+      <c r="BL8">
+        <v>2.05</v>
+      </c>
+      <c r="BM8">
+        <v>2.3</v>
+      </c>
+      <c r="BN8">
+        <v>1.6</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>261</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ8">
+        <v>3.62</v>
+      </c>
+      <c r="BR8">
+        <v>1.25</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU8">
+        <v>4.33</v>
+      </c>
+      <c r="BV8">
+        <v>1.2</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY8">
+        <v>8</v>
+      </c>
+      <c r="BZ8">
+        <v>1.03</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC8">
+        <v>10</v>
+      </c>
+      <c r="CD8">
+        <v>1.06</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG8">
+        <v>16</v>
+      </c>
+      <c r="CH8">
+        <v>1.01</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>285</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>286</v>
+      </c>
+      <c r="CK8">
+        <v>21</v>
+      </c>
+      <c r="CL8">
+        <v>1.02</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN8">
+        <v>1.02</v>
+      </c>
+      <c r="CS8">
+        <v>51</v>
+      </c>
+      <c r="CT8">
+        <v>50</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>293</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>293</v>
+      </c>
+      <c r="DI8">
+        <v>1.5</v>
+      </c>
+      <c r="DJ8">
+        <v>2.5</v>
+      </c>
+      <c r="DK8">
+        <v>1.78</v>
+      </c>
+      <c r="DL8">
+        <v>2.03</v>
+      </c>
+      <c r="DM8">
+        <v>1.38</v>
+      </c>
+      <c r="DN8">
+        <v>3</v>
+      </c>
+      <c r="DO8">
+        <v>2.38</v>
+      </c>
+      <c r="DP8">
+        <v>1.55</v>
+      </c>
+      <c r="DQ8">
+        <v>1.2</v>
+      </c>
+      <c r="DR8">
+        <v>4.4</v>
+      </c>
+      <c r="DS8">
+        <v>3.55</v>
+      </c>
+      <c r="DT8">
+        <v>1.28</v>
+      </c>
+      <c r="DU8">
+        <v>1.04</v>
+      </c>
+      <c r="DV8">
+        <v>8.75</v>
+      </c>
+      <c r="DW8">
+        <v>5.5</v>
+      </c>
+      <c r="DX8">
+        <v>1.15</v>
+      </c>
+      <c r="DY8">
+        <v>1.01</v>
+      </c>
+      <c r="DZ8">
+        <v>11.6</v>
+      </c>
+      <c r="EA8">
+        <v>7</v>
+      </c>
+      <c r="EB8">
+        <v>1.1</v>
+      </c>
+      <c r="EE8">
+        <v>10.6</v>
+      </c>
+      <c r="EF8">
+        <v>1.02</v>
+      </c>
+      <c r="EI8">
+        <v>8</v>
+      </c>
+      <c r="EJ8">
+        <v>8.5</v>
+      </c>
+      <c r="EK8">
+        <v>17</v>
+      </c>
+      <c r="EL8">
         <v>41</v>
       </c>
-      <c r="FD7">
+      <c r="EM8">
+        <v>6</v>
+      </c>
+      <c r="EN8">
+        <v>6.5</v>
+      </c>
+      <c r="EO8">
+        <v>13</v>
+      </c>
+      <c r="EP8">
+        <v>34</v>
+      </c>
+      <c r="EQ8">
+        <v>9</v>
+      </c>
+      <c r="ER8">
+        <v>9.5</v>
+      </c>
+      <c r="ES8">
+        <v>19</v>
+      </c>
+      <c r="ET8">
         <v>41</v>
       </c>
-      <c r="FE7">
+      <c r="EU8">
+        <v>19</v>
+      </c>
+      <c r="EV8">
+        <v>19</v>
+      </c>
+      <c r="EW8">
+        <v>34</v>
+      </c>
+      <c r="EX8">
         <v>67</v>
       </c>
-      <c r="FF7">
+      <c r="EY8">
+        <v>101</v>
+      </c>
+      <c r="EZ8">
+        <v>81</v>
+      </c>
+      <c r="FA8">
+        <v>101</v>
+      </c>
+      <c r="FB8">
+        <v>201</v>
+      </c>
+      <c r="FC8">
+        <v>41</v>
+      </c>
+      <c r="FD8">
+        <v>41</v>
+      </c>
+      <c r="FE8">
+        <v>67</v>
+      </c>
+      <c r="FF8">
         <v>151</v>
       </c>
-      <c r="FG7">
+      <c r="FG8">
         <v>451</v>
       </c>
     </row>
